--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,30 +120,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,30 +136,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +195,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,23 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,31 +272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,151 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,21 +477,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFEEEEEE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -540,17 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +567,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,145 +586,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
     <col min="5" max="5" width="29.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.75" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" ht="14.75" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="学习记录表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>时间</t>
   </si>
@@ -46,7 +46,13 @@
     <t>2020-11-18 08:20:50</t>
   </si>
   <si>
-    <t>tij p404-</t>
+    <t>tij p404-p479 泛型半忽略</t>
+  </si>
+  <si>
+    <t>2020-11-19 08:29:29</t>
+  </si>
+  <si>
+    <t>tij p479-</t>
   </si>
   <si>
     <t>js</t>
@@ -85,7 +91,10 @@
     <t>完成情况</t>
   </si>
   <si>
-    <t>使用echarts座位前端，制作一个自己使用的学习进度页面</t>
+    <t>学习方向-任重而道远</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_47340771/article/details/109106595</t>
   </si>
 </sst>
 </file>
@@ -93,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,7 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,13 +145,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,22 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,22 +193,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,7 +214,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +281,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,121 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,30 +515,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -544,16 +529,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -578,6 +563,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,13 +1119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="43.5454545454545" style="8" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
@@ -1178,12 +1187,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7">
         <v>1</v>
@@ -1217,7 +1237,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7">
         <v>0.4</v>
@@ -1225,7 +1245,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -1233,7 +1253,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -1241,7 +1261,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -1260,7 +1280,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1276,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1324,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1336,18 +1356,24 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/weixin_47340771/article/details/109106595" tooltip="https://blog.csdn.net/weixin_47340771/article/details/109106595"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="学习记录表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>时间</t>
   </si>
@@ -55,6 +55,21 @@
     <t>tij p479-</t>
   </si>
   <si>
+    <t>2020-11-24 08:21:06</t>
+  </si>
+  <si>
+    <t>tij p535</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
     <t>js</t>
   </si>
   <si>
@@ -70,7 +85,13 @@
     <t>框架</t>
   </si>
   <si>
-    <t>科目</t>
+    <t>分布式</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>并发</t>
   </si>
   <si>
     <t>准考证打印时间</t>
@@ -104,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,6 +158,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -145,7 +205,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,85 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +302,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,13 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +507,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FFEEEEEE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +550,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -529,37 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,15 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,115 +646,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,13 +1140,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="43.5454545454545" style="8" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
@@ -1198,12 +1219,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1216,54 +1251,113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="23.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1296,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1344,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1356,18 +1450,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -61,6 +61,18 @@
     <t>tij p535</t>
   </si>
   <si>
+    <t>2020-11-30 18:28:36</t>
+  </si>
+  <si>
+    <t>tij p683</t>
+  </si>
+  <si>
+    <t>2020-12-1 17:22:46</t>
+  </si>
+  <si>
+    <t>aop 责任链</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -79,7 +91,7 @@
     <t>bat</t>
   </si>
   <si>
-    <t>mysql</t>
+    <t>mysql调优</t>
   </si>
   <si>
     <t>框架</t>
@@ -124,8 +136,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,53 +156,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,8 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,9 +224,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,23 +246,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,16 +275,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,25 +314,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,151 +410,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,16 +524,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,13 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,30 +602,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,145 +628,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="43.5454545454545" style="8" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
@@ -1238,6 +1250,28 @@
         <v>13</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -1254,7 +1288,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1264,13 +1298,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1278,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1289,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1300,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1311,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1322,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1333,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1344,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1355,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1374,7 +1408,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="C23" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1390,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1439,7 +1473,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1450,18 +1484,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>时间</t>
   </si>
@@ -73,6 +73,12 @@
     <t>aop 责任链</t>
   </si>
   <si>
+    <t>2020-12-2 14:35:03</t>
+  </si>
+  <si>
+    <t>restful风格了解，alibaba开发规约阅读 50%</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>进度</t>
   </si>
   <si>
+    <t>网址</t>
+  </si>
+  <si>
     <t>js</t>
   </si>
   <si>
@@ -104,6 +113,24 @@
   </si>
   <si>
     <t>并发</t>
+  </si>
+  <si>
+    <t>反编译代码看懂</t>
+  </si>
+  <si>
+    <t>人工智能视频（非必要）</t>
+  </si>
+  <si>
+    <t>http://www.eduiit.cn/study/index.php/index/main</t>
+  </si>
+  <si>
+    <t>restful风格了解</t>
+  </si>
+  <si>
+    <t>java 数值精度学习</t>
+  </si>
+  <si>
+    <t>事物回滚练习</t>
   </si>
   <si>
     <t>准考证打印时间</t>
@@ -136,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,6 +182,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -162,8 +197,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,59 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -237,67 +325,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -314,25 +341,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,25 +551,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,40 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +629,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +667,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +820,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1152,21 +1182,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.5454545454545" style="8" customWidth="1"/>
+    <col min="1" max="1" width="43.5454545454545" style="9" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="4" max="4" width="19.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1177,7 +1207,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1188,7 +1218,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1199,10 +1229,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4">
@@ -1210,10 +1240,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -1221,7 +1251,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1232,7 +1262,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -1243,7 +1273,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1254,7 +1284,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -1265,13 +1295,24 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -1285,26 +1326,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="11.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1312,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1323,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7">
         <v>0.8</v>
@@ -1334,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1345,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1356,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1367,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1378,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1389,13 +1434,74 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.eduiit.cn/study/index.php/index/main"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1424,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1484,18 +1590,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="学习记录表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>时间</t>
   </si>
@@ -79,6 +79,12 @@
     <t>restful风格了解，alibaba开发规约阅读 50%</t>
   </si>
   <si>
+    <t>2020-12-3 18:58:05</t>
+  </si>
+  <si>
+    <t>并发p707</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -127,7 +133,7 @@
     <t>restful风格了解</t>
   </si>
   <si>
-    <t>java 数值精度学习</t>
+    <t>java 金额计算</t>
   </si>
   <si>
     <t>事物回滚练习</t>
@@ -162,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -191,7 +197,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,123 +326,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -341,61 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,121 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,15 +557,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -595,37 +625,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,11 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1188,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1316,6 +1322,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1328,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1340,16 +1357,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1357,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1368,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7">
         <v>0.8</v>
@@ -1379,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1390,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1401,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1412,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1423,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1434,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1445,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1456,13 +1473,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1470,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1481,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1492,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1530,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1590,18 +1607,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="19200" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="学习记录表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -85,6 +85,18 @@
     <t>并发p707</t>
   </si>
   <si>
+    <t>2020-12-4 18:08:17</t>
+  </si>
+  <si>
+    <t>并发p724 理解synchronized和violate</t>
+  </si>
+  <si>
+    <t>2020-12-7 16:50:39</t>
+  </si>
+  <si>
+    <t>并发p734</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -137,6 +149,9 @@
   </si>
   <si>
     <t>事物回滚练习</t>
+  </si>
+  <si>
+    <t>jdk新特性</t>
   </si>
   <si>
     <t>准考证打印时间</t>
@@ -168,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -203,6 +218,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -211,96 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,29 +346,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,17 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +585,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,45 +640,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,145 +676,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1333,6 +1348,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1343,10 +1380,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1357,16 +1394,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1374,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
@@ -1385,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>0.8</v>
@@ -1396,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1407,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1418,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1429,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1440,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1451,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1462,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1473,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1487,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1498,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1509,9 +1546,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1547,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
@@ -1607,18 +1655,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/学习进度表.xlsx
+++ b/学习进度表.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7580"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学习记录表" sheetId="1" r:id="rId1"/>
-    <sheet name="对应科目完成情况" sheetId="2" r:id="rId2"/>
-    <sheet name="考试安排表" sheetId="3" r:id="rId3"/>
-    <sheet name="任务" sheetId="4" r:id="rId4"/>
+    <sheet name="每日任务" sheetId="6" r:id="rId2"/>
+    <sheet name="对应科目完成情况" sheetId="2" r:id="rId3"/>
+    <sheet name="考试安排表" sheetId="3" r:id="rId4"/>
+    <sheet name="任务" sheetId="4" r:id="rId5"/>
+    <sheet name="工具" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>时间</t>
   </si>
@@ -97,6 +99,69 @@
     <t>并发p734</t>
   </si>
   <si>
+    <t>2020-12-8 19:24:13</t>
+  </si>
+  <si>
+    <t>并发p748</t>
+  </si>
+  <si>
+    <t>2020-12-9 17:07:08</t>
+  </si>
+  <si>
+    <t>并发p759</t>
+  </si>
+  <si>
+    <t>2020-12-14 16:30:34</t>
+  </si>
+  <si>
+    <t>并发结束 开始jvm p40，设计模式 七大原则回顾 三类工厂模式学习</t>
+  </si>
+  <si>
+    <t>2020-12-16 18:13:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jvm p64 </t>
+  </si>
+  <si>
+    <t>2020-12-28 19:28:13</t>
+  </si>
+  <si>
+    <t>设计模式 适配器模式</t>
+  </si>
+  <si>
+    <t>2021-1-7 08:37:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26中设计模式看完 回顾 加深记忆 </t>
+  </si>
+  <si>
+    <t>2021-1-11 08:15:33</t>
+  </si>
+  <si>
+    <t>设计模式回顾ing 开始看shiro框架</t>
+  </si>
+  <si>
+    <t>2021-1-18 08:19:29</t>
+  </si>
+  <si>
+    <t>jvm 算法同步开始进行</t>
+  </si>
+  <si>
+    <t>2021-2-15 16:25:29</t>
+  </si>
+  <si>
+    <t>算法结束，开始spring</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>leetcode每天2题</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -154,6 +219,15 @@
     <t>jdk新特性</t>
   </si>
   <si>
+    <t>看完并发理解</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/dolphin0520/p/3920373.html</t>
+  </si>
+  <si>
+    <t>深入理解java虚拟机</t>
+  </si>
+  <si>
     <t>准考证打印时间</t>
   </si>
   <si>
@@ -166,16 +240,58 @@
     <t>是否结束</t>
   </si>
   <si>
-    <t>任务</t>
-  </si>
-  <si>
     <t>完成情况</t>
   </si>
   <si>
+    <t>tij看完理解</t>
+  </si>
+  <si>
+    <t>https://lingcoder.github.io/OnJava8/#/book/00-Preface</t>
+  </si>
+  <si>
     <t>学习方向-任重而道远</t>
   </si>
   <si>
     <t>https://blog.csdn.net/weixin_47340771/article/details/109106595</t>
+  </si>
+  <si>
+    <t>了解每种设计模式在源码中的应用</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/dailyprogrammer/articles/12272717.html</t>
+  </si>
+  <si>
+    <t>设计模式看完 看shiro框架 了解spring</t>
+  </si>
+  <si>
+    <t>jvm 加算法 同步深入</t>
+  </si>
+  <si>
+    <t>nginx配置</t>
+  </si>
+  <si>
+    <t>https://www.runoob.com/w3cnote/nginx-setup-intro.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微服务升级 Quarkus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpringBoot集成Swagger-Bootstrap-UI </t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/6Tus1sHguxsNr9QxYX-bpQ</t>
+  </si>
+  <si>
+    <t>ps:写过java解释器，模拟脚本引擎，接触数据分析</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>工具包</t>
+  </si>
+  <si>
+    <t>https://tool.lu/</t>
   </si>
 </sst>
 </file>
@@ -183,15 +299,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.5"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,14 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +357,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +426,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,23 +463,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,59 +476,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -362,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,26 +704,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +789,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,153 +818,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -843,8 +979,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,21 +1342,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.5454545454545" style="9" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="1" max="1" width="43.5454545454545" style="12" customWidth="1"/>
+    <col min="2" max="2" width="64.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="19.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1228,7 +1367,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1239,7 +1378,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1250,10 +1389,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4">
@@ -1261,10 +1400,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -1272,7 +1411,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1283,7 +1422,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -1294,7 +1433,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1305,7 +1444,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
@@ -1316,7 +1455,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -1327,7 +1466,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -1338,7 +1477,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -1349,7 +1488,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
@@ -1360,13 +1499,112 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
@@ -1380,30 +1618,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="11"/>
+    <col min="2" max="2" width="22.6363636363636" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.72727272727273" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="11.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="39.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1411,9 +1689,9 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1422,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.8</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1433,9 +1711,9 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="7">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1444,9 +1722,9 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="7">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1455,9 +1733,9 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1466,9 +1744,9 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1477,10 +1755,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1488,9 +1766,9 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1499,9 +1777,9 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1510,13 +1788,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
+      <c r="D11" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1524,9 +1802,9 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1535,10 +1813,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1546,9 +1824,9 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1557,15 +1835,41 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7">
+        <v>65</v>
+      </c>
+      <c r="C15" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" display="http://www.eduiit.cn/study/index.php/index/main"/>
+    <hyperlink ref="D16" r:id="rId2" display="https://www.cnblogs.com/dolphin0520/p/3920373.html" tooltip="https://www.cnblogs.com/dolphin0520/p/3920373.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1573,13 +1877,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1595,37 +1899,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="14.75" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1638,41 +1942,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="40.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="20.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="53.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" ht="47" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://blog.csdn.net/weixin_47340771/article/details/109106595" tooltip="https://blog.csdn.net/weixin_47340771/article/details/109106595"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.cnblogs.com/dailyprogrammer/articles/12272717.html" tooltip="https://www.cnblogs.com/dailyprogrammer/articles/12272717.html"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://www.runoob.com/w3cnote/nginx-setup-intro.html" tooltip="https://www.runoob.com/w3cnote/nginx-setup-intro.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="23.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="60.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
+      <c r="A2" t="s">
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://blog.csdn.net/weixin_47340771/article/details/109106595" tooltip="https://blog.csdn.net/weixin_47340771/article/details/109106595"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
